--- a/data/trans_orig/P19E_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19E_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E4F5BD5-1DE4-42A3-8E93-396A11D02647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BBD955C-A112-4871-8728-7D3578F6D690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93620939-EB3D-4813-88D6-C486FB6F15C6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5ADFD6AA-1487-4281-ABDD-70D62441807C}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="336">
   <si>
     <t>Población que se cepilla los dientes una o ninguna vez al día en 2016 (Tasa respuesta: 97,38%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>44,1%</t>
   </si>
   <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
   </si>
   <si>
     <t>21,46%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
   </si>
   <si>
     <t>32,85%</t>
   </si>
   <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>55,9%</t>
   </si>
   <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
   </si>
   <si>
     <t>78,54%</t>
   </si>
   <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>67,15%</t>
   </si>
   <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>35,15%</t>
   </si>
   <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
   </si>
   <si>
     <t>24,71%</t>
   </si>
   <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
   </si>
   <si>
     <t>29,8%</t>
   </si>
   <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
   </si>
   <si>
     <t>64,85%</t>
   </si>
   <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
   </si>
   <si>
     <t>75,29%</t>
   </si>
   <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
   </si>
   <si>
     <t>70,2%</t>
   </si>
   <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -195,55 +195,55 @@
     <t>8,97%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>91,03%</t>
   </si>
   <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>92,78%</t>
   </si>
   <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>91,93%</t>
   </si>
   <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -252,55 +252,55 @@
     <t>41,41%</t>
   </si>
   <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
   </si>
   <si>
     <t>25,16%</t>
   </si>
   <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
   </si>
   <si>
     <t>33,08%</t>
   </si>
   <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
   </si>
   <si>
     <t>58,59%</t>
   </si>
   <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
   </si>
   <si>
     <t>74,84%</t>
   </si>
   <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>66,92%</t>
   </si>
   <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -309,55 +309,55 @@
     <t>37,75%</t>
   </si>
   <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
   </si>
   <si>
     <t>29,07%</t>
   </si>
   <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
   </si>
   <si>
     <t>33,32%</t>
   </si>
   <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
   </si>
   <si>
     <t>70,93%</t>
   </si>
   <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>66,68%</t>
   </si>
   <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -366,55 +366,49 @@
     <t>64,56%</t>
   </si>
   <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
   </si>
   <si>
     <t>52,7%</t>
   </si>
   <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
+    <t>46,46%</t>
   </si>
   <si>
     <t>58,52%</t>
   </si>
   <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
   </si>
   <si>
     <t>35,44%</t>
   </si>
   <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
   </si>
   <si>
     <t>47,3%</t>
   </si>
   <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
+    <t>53,54%</t>
   </si>
   <si>
     <t>41,48%</t>
   </si>
   <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -423,55 +417,55 @@
     <t>47,59%</t>
   </si>
   <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
   </si>
   <si>
     <t>31,88%</t>
   </si>
   <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
   </si>
   <si>
     <t>39,56%</t>
   </si>
   <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>52,41%</t>
   </si>
   <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
   </si>
   <si>
     <t>68,12%</t>
   </si>
   <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
   </si>
   <si>
     <t>60,44%</t>
   </si>
   <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -480,109 +474,109 @@
     <t>17,3%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
   </si>
   <si>
     <t>86,62%</t>
   </si>
   <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>84,73%</t>
   </si>
   <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
   </si>
   <si>
     <t>34,8%</t>
   </si>
   <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
   </si>
   <si>
     <t>29,23%</t>
   </si>
   <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
   </si>
   <si>
     <t>65,2%</t>
   </si>
   <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
   </si>
   <si>
     <t>76,08%</t>
   </si>
   <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>70,77%</t>
   </si>
   <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -594,436 +588,424 @@
     <t>31,12%</t>
   </si>
   <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
   </si>
   <si>
     <t>25,49%</t>
   </si>
   <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
+    <t>21,77%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>68,88%</t>
   </si>
   <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
   </si>
   <si>
     <t>74,51%</t>
   </si>
   <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
+    <t>78,23%</t>
   </si>
   <si>
     <t>71,75%</t>
   </si>
   <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
   </si>
   <si>
     <t>39,19%</t>
   </si>
   <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>24,82%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
   <si>
     <t>31,78%</t>
   </si>
   <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
   </si>
   <si>
     <t>60,81%</t>
   </si>
   <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
   </si>
   <si>
     <t>75,18%</t>
   </si>
   <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
   </si>
   <si>
     <t>68,22%</t>
   </si>
   <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
   </si>
   <si>
     <t>39,84%</t>
   </si>
   <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
+    <t>22,58%</t>
   </si>
   <si>
     <t>32,35%</t>
   </si>
   <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
+    <t>35,63%</t>
   </si>
   <si>
     <t>60,16%</t>
   </si>
   <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
+    <t>77,42%</t>
   </si>
   <si>
     <t>67,65%</t>
   </si>
   <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
+    <t>64,37%</t>
   </si>
   <si>
     <t>13,51%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
   </si>
   <si>
     <t>10,95%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
   </si>
   <si>
     <t>86,49%</t>
   </si>
   <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>89,05%</t>
   </si>
   <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>87,95%</t>
   </si>
   <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>98,07%</t>
   </si>
   <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>46,04%</t>
   </si>
   <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
   </si>
   <si>
     <t>35,49%</t>
   </si>
   <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
   </si>
   <si>
     <t>40,77%</t>
   </si>
   <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
+    <t>37,2%</t>
   </si>
   <si>
     <t>53,96%</t>
   </si>
   <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
   </si>
   <si>
     <t>64,51%</t>
   </si>
   <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
   </si>
   <si>
     <t>59,23%</t>
   </si>
   <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
+    <t>62,8%</t>
   </si>
   <si>
     <t>25,62%</t>
   </si>
   <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>5,7%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
   </si>
   <si>
     <t>16,85%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>74,38%</t>
   </si>
   <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
   </si>
   <si>
     <t>89,98%</t>
   </si>
   <si>
-    <t>94,3%</t>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>83,15%</t>
   </si>
   <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>7,41%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>90,82%</t>
   </si>
   <si>
-    <t>92,59%</t>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>25,27%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
   </si>
   <si>
     <t>16,11%</t>
   </si>
   <si>
-    <t>14,42%</t>
+    <t>14,43%</t>
   </si>
   <si>
     <t>17,21%</t>
@@ -1032,16 +1014,19 @@
     <t>20,42%</t>
   </si>
   <si>
-    <t>19,12%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
   </si>
   <si>
     <t>74,73%</t>
   </si>
   <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
   </si>
   <si>
     <t>83,89%</t>
@@ -1050,13 +1035,16 @@
     <t>82,79%</t>
   </si>
   <si>
-    <t>85,58%</t>
+    <t>85,57%</t>
   </si>
   <si>
     <t>79,58%</t>
   </si>
   <si>
-    <t>80,88%</t>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8514FF1F-D73B-486E-AA32-220E480DB81E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DE39A0-E941-4BCB-96F5-E9BD449406A9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2388,7 +2376,7 @@
         <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>301</v>
@@ -2397,13 +2385,13 @@
         <v>312701</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,13 +2406,13 @@
         <v>92912</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>128</v>
@@ -2433,13 +2421,13 @@
         <v>128756</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>219</v>
@@ -2448,13 +2436,13 @@
         <v>221668</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,7 +2498,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2522,13 +2510,13 @@
         <v>291463</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>190</v>
@@ -2537,13 +2525,13 @@
         <v>203974</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>443</v>
@@ -2552,13 +2540,13 @@
         <v>495437</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2561,13 @@
         <v>320978</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>410</v>
@@ -2588,13 +2576,13 @@
         <v>435799</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>695</v>
@@ -2603,13 +2591,13 @@
         <v>756777</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,7 +2653,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2677,13 +2665,13 @@
         <v>132518</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -2692,13 +2680,13 @@
         <v>109689</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>233</v>
@@ -2707,13 +2695,13 @@
         <v>242207</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2716,13 @@
         <v>633443</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>649</v>
@@ -2743,13 +2731,13 @@
         <v>710303</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1254</v>
@@ -2758,13 +2746,13 @@
         <v>1343746</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2820,13 @@
         <v>1147607</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>768</v>
@@ -2847,13 +2835,13 @@
         <v>826642</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1860</v>
@@ -2862,13 +2850,13 @@
         <v>1974249</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2871,13 @@
         <v>2150361</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2491</v>
@@ -2898,13 +2886,13 @@
         <v>2629000</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4537</v>
@@ -2913,13 +2901,13 @@
         <v>4779361</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,7 +2963,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +2987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93BF257-ACAB-49C2-B97B-231B8C419E7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1767D5B-979A-4319-BA96-E84D337BB93D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3016,7 +3004,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3123,13 +3111,13 @@
         <v>80957</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H4" s="7">
         <v>155</v>
@@ -3138,13 +3126,13 @@
         <v>68979</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="M4" s="7">
         <v>280</v>
@@ -3153,13 +3141,13 @@
         <v>149936</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3162,13 @@
         <v>179182</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H5" s="7">
         <v>382</v>
@@ -3189,13 +3177,13 @@
         <v>201670</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>587</v>
@@ -3204,13 +3192,13 @@
         <v>380852</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3266,13 @@
         <v>203514</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>197</v>
@@ -3293,13 +3281,13 @@
         <v>137268</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>359</v>
@@ -3308,13 +3296,13 @@
         <v>340783</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3317,13 @@
         <v>315783</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>517</v>
@@ -3344,13 +3332,13 @@
         <v>415852</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>737</v>
@@ -3359,13 +3347,13 @@
         <v>731634</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3421,13 @@
         <v>126911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>158</v>
@@ -3448,13 +3436,13 @@
         <v>96032</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>315</v>
@@ -3463,13 +3451,13 @@
         <v>222943</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3472,13 @@
         <v>191680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>373</v>
@@ -3499,13 +3487,13 @@
         <v>274634</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>233</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M11" s="7">
         <v>572</v>
@@ -3514,13 +3502,13 @@
         <v>466314</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3576,13 @@
         <v>42750</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
         <v>82</v>
@@ -3603,13 +3591,13 @@
         <v>45680</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -3618,13 +3606,13 @@
         <v>88430</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3627,13 @@
         <v>273695</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
         <v>494</v>
@@ -3654,13 +3642,13 @@
         <v>371552</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
         <v>728</v>
@@ -3669,13 +3657,13 @@
         <v>645247</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3731,13 @@
         <v>4056</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3758,13 +3746,13 @@
         <v>4191</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -3773,13 +3761,13 @@
         <v>8247</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3782,13 @@
         <v>192692</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>480</v>
@@ -3809,13 +3797,13 @@
         <v>226798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>753</v>
@@ -3824,13 +3812,13 @@
         <v>419489</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3886,13 @@
         <v>127274</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>203</v>
@@ -3913,13 +3901,13 @@
         <v>97810</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>399</v>
@@ -3928,13 +3916,13 @@
         <v>225084</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>282</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3937,13 @@
         <v>149167</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>257</v>
@@ -3964,13 +3952,13 @@
         <v>177812</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>431</v>
@@ -3979,13 +3967,13 @@
         <v>326980</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>290</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,7 +4029,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4053,13 +4041,13 @@
         <v>159831</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H22" s="7">
         <v>109</v>
@@ -4068,13 +4056,13 @@
         <v>80228</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>53</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>258</v>
@@ -4083,13 +4071,13 @@
         <v>240059</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4092,13 @@
         <v>463903</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H23" s="7">
         <v>845</v>
@@ -4119,13 +4107,13 @@
         <v>720370</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>61</v>
+        <v>295</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="M23" s="7">
         <v>1290</v>
@@ -4134,13 +4122,13 @@
         <v>1184273</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,7 +4184,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4208,13 +4196,13 @@
         <v>106338</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -4223,13 +4211,13 @@
         <v>79506</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>241</v>
+        <v>305</v>
       </c>
       <c r="M25" s="7">
         <v>214</v>
@@ -4238,13 +4226,13 @@
         <v>185844</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4247,13 @@
         <v>752397</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>955</v>
@@ -4274,13 +4262,13 @@
         <v>786166</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M26" s="7">
         <v>1608</v>
@@ -4289,13 +4277,13 @@
         <v>1538563</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4351,13 @@
         <v>851631</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7">
         <v>1020</v>
@@ -4378,13 +4366,13 @@
         <v>609694</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M28" s="7">
         <v>1972</v>
@@ -4393,13 +4381,13 @@
         <v>1461325</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>14</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4402,13 @@
         <v>2518499</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H29" s="7">
         <v>4303</v>
@@ -4429,13 +4417,13 @@
         <v>3174854</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M29" s="7">
         <v>6706</v>
@@ -4444,13 +4432,13 @@
         <v>5693353</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>24</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,7 +4494,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19E_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19E_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BBD955C-A112-4871-8728-7D3578F6D690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDE0360D-6C60-48FB-BD88-BF5BE376AA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5ADFD6AA-1487-4281-ABDD-70D62441807C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EEDF40AB-797C-468E-A0C3-71610B41E8A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="340">
   <si>
     <t>Población que se cepilla los dientes una o ninguna vez al día en 2016 (Tasa respuesta: 97,38%)</t>
   </si>
@@ -585,466 +585,478 @@
     <t>Población que se cepilla los dientes una o ninguna vez al día en 2023 (Tasa respuesta: 99,26%)</t>
   </si>
   <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DE39A0-E941-4BCB-96F5-E9BD449406A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896A1009-C568-4116-8588-5197E3F49E52}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2883,7 +2895,7 @@
         <v>2491</v>
       </c>
       <c r="I29" s="7">
-        <v>2629000</v>
+        <v>2628999</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>174</v>
@@ -2934,7 +2946,7 @@
         <v>3259</v>
       </c>
       <c r="I30" s="7">
-        <v>3455642</v>
+        <v>3455641</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2987,7 +2999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1767D5B-979A-4319-BA96-E84D337BB93D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8C1DA5-B8CF-4B7F-B83B-008158FE6CA3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3108,7 +3120,7 @@
         <v>125</v>
       </c>
       <c r="D4" s="7">
-        <v>80957</v>
+        <v>91278</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
@@ -3123,7 +3135,7 @@
         <v>155</v>
       </c>
       <c r="I4" s="7">
-        <v>68979</v>
+        <v>71439</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>185</v>
@@ -3132,13 +3144,13 @@
         <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>280</v>
       </c>
       <c r="N4" s="7">
-        <v>149936</v>
+        <v>162717</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>187</v>
@@ -3159,7 +3171,7 @@
         <v>205</v>
       </c>
       <c r="D5" s="7">
-        <v>179182</v>
+        <v>219996</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>190</v>
@@ -3174,13 +3186,13 @@
         <v>382</v>
       </c>
       <c r="I5" s="7">
-        <v>201670</v>
+        <v>217442</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>193</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>194</v>
@@ -3189,7 +3201,7 @@
         <v>587</v>
       </c>
       <c r="N5" s="7">
-        <v>380852</v>
+        <v>437439</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>195</v>
@@ -3210,7 +3222,7 @@
         <v>330</v>
       </c>
       <c r="D6" s="7">
-        <v>260139</v>
+        <v>311274</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3225,7 +3237,7 @@
         <v>537</v>
       </c>
       <c r="I6" s="7">
-        <v>270649</v>
+        <v>288881</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3240,7 +3252,7 @@
         <v>867</v>
       </c>
       <c r="N6" s="7">
-        <v>530788</v>
+        <v>600156</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3263,7 +3275,7 @@
         <v>162</v>
       </c>
       <c r="D7" s="7">
-        <v>203514</v>
+        <v>197820</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>198</v>
@@ -3278,7 +3290,7 @@
         <v>197</v>
       </c>
       <c r="I7" s="7">
-        <v>137268</v>
+        <v>126605</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>201</v>
@@ -3293,7 +3305,7 @@
         <v>359</v>
       </c>
       <c r="N7" s="7">
-        <v>340783</v>
+        <v>324425</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>204</v>
@@ -3314,7 +3326,7 @@
         <v>220</v>
       </c>
       <c r="D8" s="7">
-        <v>315783</v>
+        <v>320570</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>207</v>
@@ -3329,7 +3341,7 @@
         <v>517</v>
       </c>
       <c r="I8" s="7">
-        <v>415852</v>
+        <v>387046</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>210</v>
@@ -3344,7 +3356,7 @@
         <v>737</v>
       </c>
       <c r="N8" s="7">
-        <v>731634</v>
+        <v>707616</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>213</v>
@@ -3365,7 +3377,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3380,7 +3392,7 @@
         <v>714</v>
       </c>
       <c r="I9" s="7">
-        <v>553120</v>
+        <v>513651</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3395,7 +3407,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1072417</v>
+        <v>1032041</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3418,7 +3430,7 @@
         <v>157</v>
       </c>
       <c r="D10" s="7">
-        <v>126911</v>
+        <v>122897</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>216</v>
@@ -3433,7 +3445,7 @@
         <v>158</v>
       </c>
       <c r="I10" s="7">
-        <v>96032</v>
+        <v>89303</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>219</v>
@@ -3442,22 +3454,22 @@
         <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>315</v>
       </c>
       <c r="N10" s="7">
-        <v>222943</v>
+        <v>212200</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,46 +3481,46 @@
         <v>199</v>
       </c>
       <c r="D11" s="7">
-        <v>191680</v>
+        <v>189645</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>373</v>
       </c>
       <c r="I11" s="7">
-        <v>274634</v>
+        <v>257408</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>87</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>572</v>
       </c>
       <c r="N11" s="7">
-        <v>466314</v>
+        <v>447053</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>101</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,7 +3532,7 @@
         <v>356</v>
       </c>
       <c r="D12" s="7">
-        <v>318591</v>
+        <v>312542</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3535,7 +3547,7 @@
         <v>531</v>
       </c>
       <c r="I12" s="7">
-        <v>370666</v>
+        <v>346711</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3550,7 +3562,7 @@
         <v>887</v>
       </c>
       <c r="N12" s="7">
-        <v>689257</v>
+        <v>659253</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3573,46 +3585,46 @@
         <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>42750</v>
+        <v>40990</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>82</v>
       </c>
       <c r="I13" s="7">
-        <v>45680</v>
+        <v>42588</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
       </c>
       <c r="N13" s="7">
-        <v>88430</v>
+        <v>83578</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,46 +3636,46 @@
         <v>234</v>
       </c>
       <c r="D14" s="7">
-        <v>273695</v>
+        <v>266055</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
         <v>494</v>
       </c>
       <c r="I14" s="7">
-        <v>371552</v>
+        <v>422585</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>728</v>
       </c>
       <c r="N14" s="7">
-        <v>645247</v>
+        <v>688640</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,7 +3687,7 @@
         <v>283</v>
       </c>
       <c r="D15" s="7">
-        <v>316445</v>
+        <v>307045</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3690,7 +3702,7 @@
         <v>576</v>
       </c>
       <c r="I15" s="7">
-        <v>417232</v>
+        <v>465173</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3705,7 +3717,7 @@
         <v>859</v>
       </c>
       <c r="N15" s="7">
-        <v>733677</v>
+        <v>772218</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3728,46 +3740,46 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>4056</v>
+        <v>3685</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>4191</v>
+        <v>3806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>8247</v>
+        <v>7491</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,46 +3791,46 @@
         <v>273</v>
       </c>
       <c r="D17" s="7">
-        <v>192692</v>
+        <v>175057</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>480</v>
       </c>
       <c r="I17" s="7">
-        <v>226798</v>
+        <v>204043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>753</v>
       </c>
       <c r="N17" s="7">
-        <v>419489</v>
+        <v>379100</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,7 +3842,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3845,7 +3857,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>230989</v>
+        <v>207849</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3860,7 +3872,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427736</v>
+        <v>386591</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3883,46 +3895,46 @@
         <v>196</v>
       </c>
       <c r="D19" s="7">
-        <v>127274</v>
+        <v>123364</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>203</v>
       </c>
       <c r="I19" s="7">
-        <v>97810</v>
+        <v>91559</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>399</v>
       </c>
       <c r="N19" s="7">
-        <v>225084</v>
+        <v>214922</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,46 +3946,46 @@
         <v>174</v>
       </c>
       <c r="D20" s="7">
-        <v>149167</v>
+        <v>145533</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>257</v>
       </c>
       <c r="I20" s="7">
-        <v>177812</v>
+        <v>165497</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>431</v>
       </c>
       <c r="N20" s="7">
-        <v>326980</v>
+        <v>311031</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,7 +3997,7 @@
         <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>276441</v>
+        <v>268897</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4000,7 +4012,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4015,7 +4027,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552064</v>
+        <v>525953</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4038,46 +4050,46 @@
         <v>149</v>
       </c>
       <c r="D22" s="7">
-        <v>159831</v>
+        <v>160658</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>109</v>
       </c>
       <c r="I22" s="7">
-        <v>80228</v>
+        <v>74418</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>258</v>
       </c>
       <c r="N22" s="7">
-        <v>240059</v>
+        <v>235077</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,46 +4101,46 @@
         <v>445</v>
       </c>
       <c r="D23" s="7">
-        <v>463903</v>
+        <v>459790</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>845</v>
       </c>
       <c r="I23" s="7">
-        <v>720370</v>
+        <v>771682</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>1290</v>
       </c>
       <c r="N23" s="7">
-        <v>1184273</v>
+        <v>1231471</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,7 +4152,7 @@
         <v>594</v>
       </c>
       <c r="D24" s="7">
-        <v>623734</v>
+        <v>620448</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4155,7 +4167,7 @@
         <v>954</v>
       </c>
       <c r="I24" s="7">
-        <v>800598</v>
+        <v>846100</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4170,7 +4182,7 @@
         <v>1548</v>
       </c>
       <c r="N24" s="7">
-        <v>1424332</v>
+        <v>1466548</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4193,46 +4205,46 @@
         <v>108</v>
       </c>
       <c r="D25" s="7">
-        <v>106338</v>
+        <v>90668</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
       </c>
       <c r="I25" s="7">
-        <v>79506</v>
+        <v>65597</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>214</v>
       </c>
       <c r="N25" s="7">
-        <v>185844</v>
+        <v>156265</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,46 +4256,46 @@
         <v>653</v>
       </c>
       <c r="D26" s="7">
-        <v>752397</v>
+        <v>837448</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>955</v>
       </c>
       <c r="I26" s="7">
-        <v>786166</v>
+        <v>649795</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>1608</v>
       </c>
       <c r="N26" s="7">
-        <v>1538563</v>
+        <v>1487243</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,7 +4307,7 @@
         <v>761</v>
       </c>
       <c r="D27" s="7">
-        <v>858735</v>
+        <v>928116</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -4310,7 +4322,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -4325,7 +4337,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724407</v>
+        <v>1643508</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -4348,46 +4360,46 @@
         <v>952</v>
       </c>
       <c r="D28" s="7">
-        <v>851631</v>
+        <v>831359</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>1020</v>
       </c>
       <c r="I28" s="7">
-        <v>609694</v>
+        <v>565315</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>1972</v>
       </c>
       <c r="N28" s="7">
-        <v>1461325</v>
+        <v>1396675</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,46 +4411,46 @@
         <v>2403</v>
       </c>
       <c r="D29" s="7">
-        <v>2518499</v>
+        <v>2614095</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>4303</v>
       </c>
       <c r="I29" s="7">
-        <v>3174854</v>
+        <v>3075498</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>6706</v>
       </c>
       <c r="N29" s="7">
-        <v>5693353</v>
+        <v>5689593</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,7 +4462,7 @@
         <v>3355</v>
       </c>
       <c r="D30" s="7">
-        <v>3370130</v>
+        <v>3445454</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -4465,7 +4477,7 @@
         <v>5323</v>
       </c>
       <c r="I30" s="7">
-        <v>3784548</v>
+        <v>3640813</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -4480,7 +4492,7 @@
         <v>8678</v>
       </c>
       <c r="N30" s="7">
-        <v>7154678</v>
+        <v>7086268</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
